--- a/storage/macros/cuarto/Modelado/Puente inventor.xlsx
+++ b/storage/macros/cuarto/Modelado/Puente inventor.xlsx
@@ -258,7 +258,7 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="D2">
-            <v>7000</v>
+            <v>10000</v>
           </cell>
         </row>
         <row r="3">
@@ -268,12 +268,12 @@
         </row>
         <row r="4">
           <cell r="D4">
-            <v>101.6</v>
+            <v>50.8</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>7000</v>
+            <v>10000</v>
           </cell>
         </row>
         <row r="6">
@@ -283,12 +283,12 @@
         </row>
         <row r="7">
           <cell r="D7">
-            <v>101.6</v>
+            <v>50.8</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>4250</v>
+            <v>5750</v>
           </cell>
         </row>
         <row r="9">
@@ -298,7 +298,7 @@
         </row>
         <row r="10">
           <cell r="D10">
-            <v>3500</v>
+            <v>10000</v>
           </cell>
         </row>
         <row r="11">
@@ -308,22 +308,22 @@
         </row>
         <row r="12">
           <cell r="D12">
-            <v>101.6</v>
+            <v>50.8</v>
           </cell>
         </row>
         <row r="13">
           <cell r="D13">
-            <v>7000</v>
+            <v>10000</v>
           </cell>
         </row>
         <row r="14">
           <cell r="D14">
-            <v>3500</v>
+            <v>10000</v>
           </cell>
         </row>
         <row r="15">
           <cell r="D15">
-            <v>101.6</v>
+            <v>50.8</v>
           </cell>
         </row>
       </sheetData>
@@ -331,13 +331,13 @@
       <sheetData sheetId="2">
         <row r="5">
           <cell r="M5">
-            <v>2671</v>
+            <v>3130</v>
           </cell>
           <cell r="N5">
-            <v>1025</v>
+            <v>640</v>
           </cell>
           <cell r="O5">
-            <v>749</v>
+            <v>550</v>
           </cell>
         </row>
       </sheetData>
@@ -357,7 +357,7 @@
       <sheetData sheetId="4">
         <row r="3">
           <cell r="D3">
-            <v>512.5</v>
+            <v>320</v>
           </cell>
         </row>
         <row r="4">
@@ -372,27 +372,27 @@
         </row>
         <row r="6">
           <cell r="D6">
-            <v>128.125</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
-            <v>749</v>
+            <v>550</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>59.92</v>
+            <v>44</v>
           </cell>
         </row>
         <row r="9">
           <cell r="D9">
-            <v>187.25</v>
+            <v>137.5</v>
           </cell>
         </row>
         <row r="10">
           <cell r="D10">
-            <v>461.25</v>
+            <v>288</v>
           </cell>
         </row>
         <row r="14">
@@ -434,17 +434,17 @@
       <sheetData sheetId="5">
         <row r="8">
           <cell r="D8">
-            <v>4</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="9">
           <cell r="D9">
-            <v>2</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="17">
           <cell r="D17">
-            <v>4</v>
+            <v>6</v>
           </cell>
         </row>
       </sheetData>
@@ -471,7 +471,7 @@
         </row>
         <row r="18">
           <cell r="D18">
-            <v>1100</v>
+            <v>1200</v>
           </cell>
         </row>
       </sheetData>
@@ -785,7 +785,7 @@
       </c>
       <c r="B1" s="2">
         <f>'[1]Dimensiones cuarto'!$D$2</f>
-        <v>7000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -803,7 +803,7 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Dimensiones cuarto'!$D$4</f>
-        <v>101.6</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -812,7 +812,7 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Dimensiones cuarto'!$D$5</f>
-        <v>7000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -830,7 +830,7 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Dimensiones cuarto'!$D$7</f>
-        <v>101.6</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -839,7 +839,7 @@
       </c>
       <c r="B7" s="2">
         <f>'[1]Dimensiones cuarto'!$D$8</f>
-        <v>4250</v>
+        <v>5750</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -857,7 +857,7 @@
       </c>
       <c r="B9" s="2">
         <f>'[1]Dimensiones cuarto'!$D$10</f>
-        <v>3500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -875,7 +875,7 @@
       </c>
       <c r="B11" s="2">
         <f>'[1]Dimensiones cuarto'!$D$12</f>
-        <v>101.6</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -884,7 +884,7 @@
       </c>
       <c r="B12" s="2">
         <f>'[1]Dimensiones cuarto'!$D$13</f>
-        <v>7000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -893,7 +893,7 @@
       </c>
       <c r="B13" s="2">
         <f>'[1]Dimensiones cuarto'!$D$14</f>
-        <v>3500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -902,7 +902,7 @@
       </c>
       <c r="B14" s="2">
         <f>'[1]Dimensiones cuarto'!$D$15</f>
-        <v>101.6</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -911,7 +911,7 @@
       </c>
       <c r="B15" s="2">
         <f>[1]Soportes!$D$3</f>
-        <v>512.5</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -938,7 +938,7 @@
       </c>
       <c r="B18" s="2">
         <f>[1]Soportes!$D$6</f>
-        <v>128.125</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -947,7 +947,7 @@
       </c>
       <c r="B19" s="3">
         <f>[1]Soportes!$D$7</f>
-        <v>749</v>
+        <v>550</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="B20" s="3">
         <f>[1]Soportes!$D$8</f>
-        <v>59.92</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -979,7 +979,7 @@
       </c>
       <c r="B21" s="3">
         <f>[1]Soportes!$D$9</f>
-        <v>187.25</v>
+        <v>137.5</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -995,7 +995,7 @@
       </c>
       <c r="B22" s="3">
         <f>[1]Soportes!$D$10</f>
-        <v>461.25</v>
+        <v>288</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B31">
         <f>[1]Evaporadoras!$M$5</f>
-        <v>2671</v>
+        <v>3130</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="B32" s="1">
         <f>[1]Evaporadoras!$N$5</f>
-        <v>1025</v>
+        <v>640</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="B33" s="1">
         <f>[1]Evaporadoras!$O$5</f>
-        <v>749</v>
+        <v>550</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="B42" s="1">
         <f>[1]Estantes!$D$17</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>49</v>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="B48" s="1">
         <f>[1]Estantes!$D$9</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>49</v>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B49" s="1">
         <f>[1]Estantes!$D$8</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>49</v>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B50" s="1">
         <f>B33</f>
-        <v>749</v>
+        <v>550</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>52</v>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B51" s="1">
         <f>'[1]Ubicacion espacial'!$D$18</f>
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>52</v>

--- a/storage/macros/cuarto/Modelado/Puente inventor.xlsx
+++ b/storage/macros/cuarto/Modelado/Puente inventor.xlsx
@@ -258,12 +258,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="D2">
-            <v>10000</v>
+            <v>5900</v>
           </cell>
         </row>
         <row r="3">
           <cell r="D3">
-            <v>3500</v>
+            <v>3000</v>
           </cell>
         </row>
         <row r="4">
@@ -273,12 +273,12 @@
         </row>
         <row r="5">
           <cell r="D5">
-            <v>10000</v>
+            <v>5900</v>
           </cell>
         </row>
         <row r="6">
           <cell r="D6">
-            <v>3500</v>
+            <v>3000</v>
           </cell>
         </row>
         <row r="7">
@@ -288,7 +288,7 @@
         </row>
         <row r="8">
           <cell r="D8">
-            <v>5750</v>
+            <v>3700</v>
           </cell>
         </row>
         <row r="9">
@@ -298,12 +298,12 @@
         </row>
         <row r="10">
           <cell r="D10">
-            <v>10000</v>
+            <v>4500</v>
           </cell>
         </row>
         <row r="11">
           <cell r="D11">
-            <v>3500</v>
+            <v>3000</v>
           </cell>
         </row>
         <row r="12">
@@ -313,12 +313,12 @@
         </row>
         <row r="13">
           <cell r="D13">
-            <v>10000</v>
+            <v>5900</v>
           </cell>
         </row>
         <row r="14">
           <cell r="D14">
-            <v>10000</v>
+            <v>4500</v>
           </cell>
         </row>
         <row r="15">
@@ -331,13 +331,13 @@
       <sheetData sheetId="2">
         <row r="5">
           <cell r="M5">
-            <v>3130</v>
+            <v>2111</v>
           </cell>
           <cell r="N5">
-            <v>640</v>
+            <v>1025</v>
           </cell>
           <cell r="O5">
-            <v>550</v>
+            <v>749</v>
           </cell>
         </row>
       </sheetData>
@@ -357,7 +357,7 @@
       <sheetData sheetId="4">
         <row r="3">
           <cell r="D3">
-            <v>320</v>
+            <v>512.5</v>
           </cell>
         </row>
         <row r="4">
@@ -372,27 +372,27 @@
         </row>
         <row r="6">
           <cell r="D6">
-            <v>80</v>
+            <v>128.125</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
-            <v>550</v>
+            <v>749</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>44</v>
+            <v>59.92</v>
           </cell>
         </row>
         <row r="9">
           <cell r="D9">
-            <v>137.5</v>
+            <v>187.25</v>
           </cell>
         </row>
         <row r="10">
           <cell r="D10">
-            <v>288</v>
+            <v>461.25</v>
           </cell>
         </row>
         <row r="14">
@@ -434,17 +434,17 @@
       <sheetData sheetId="5">
         <row r="8">
           <cell r="D8">
-            <v>6</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="9">
           <cell r="D9">
-            <v>8</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="17">
           <cell r="D17">
-            <v>6</v>
+            <v>3</v>
           </cell>
         </row>
       </sheetData>
@@ -471,7 +471,7 @@
         </row>
         <row r="18">
           <cell r="D18">
-            <v>1200</v>
+            <v>1250</v>
           </cell>
         </row>
       </sheetData>
@@ -785,7 +785,7 @@
       </c>
       <c r="B1" s="2">
         <f>'[1]Dimensiones cuarto'!$D$2</f>
-        <v>10000</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -794,7 +794,7 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Dimensiones cuarto'!$D$3</f>
-        <v>3500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -812,7 +812,7 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Dimensiones cuarto'!$D$5</f>
-        <v>10000</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -821,7 +821,7 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Dimensiones cuarto'!$D$6</f>
-        <v>3500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -839,7 +839,7 @@
       </c>
       <c r="B7" s="2">
         <f>'[1]Dimensiones cuarto'!$D$8</f>
-        <v>5750</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -857,7 +857,7 @@
       </c>
       <c r="B9" s="2">
         <f>'[1]Dimensiones cuarto'!$D$10</f>
-        <v>10000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -866,7 +866,7 @@
       </c>
       <c r="B10" s="2">
         <f>'[1]Dimensiones cuarto'!$D$11</f>
-        <v>3500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -884,7 +884,7 @@
       </c>
       <c r="B12" s="2">
         <f>'[1]Dimensiones cuarto'!$D$13</f>
-        <v>10000</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -893,7 +893,7 @@
       </c>
       <c r="B13" s="2">
         <f>'[1]Dimensiones cuarto'!$D$14</f>
-        <v>10000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -911,7 +911,7 @@
       </c>
       <c r="B15" s="2">
         <f>[1]Soportes!$D$3</f>
-        <v>320</v>
+        <v>512.5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -938,7 +938,7 @@
       </c>
       <c r="B18" s="2">
         <f>[1]Soportes!$D$6</f>
-        <v>80</v>
+        <v>128.125</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -947,7 +947,7 @@
       </c>
       <c r="B19" s="3">
         <f>[1]Soportes!$D$7</f>
-        <v>550</v>
+        <v>749</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="B20" s="3">
         <f>[1]Soportes!$D$8</f>
-        <v>44</v>
+        <v>59.92</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -979,7 +979,7 @@
       </c>
       <c r="B21" s="3">
         <f>[1]Soportes!$D$9</f>
-        <v>137.5</v>
+        <v>187.25</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -995,7 +995,7 @@
       </c>
       <c r="B22" s="3">
         <f>[1]Soportes!$D$10</f>
-        <v>288</v>
+        <v>461.25</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B31">
         <f>[1]Evaporadoras!$M$5</f>
-        <v>3130</v>
+        <v>2111</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="B32" s="1">
         <f>[1]Evaporadoras!$N$5</f>
-        <v>640</v>
+        <v>1025</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="B33" s="1">
         <f>[1]Evaporadoras!$O$5</f>
-        <v>550</v>
+        <v>749</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="B42" s="1">
         <f>[1]Estantes!$D$17</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>49</v>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="B48" s="1">
         <f>[1]Estantes!$D$9</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>49</v>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B49" s="1">
         <f>[1]Estantes!$D$8</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>49</v>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B50" s="1">
         <f>B33</f>
-        <v>550</v>
+        <v>749</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>52</v>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B51" s="1">
         <f>'[1]Ubicacion espacial'!$D$18</f>
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>52</v>
